--- a/selected_data_codes.xlsx
+++ b/selected_data_codes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="363">
   <si>
     <t>release_id</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>Labor Force Status Flows from the Current Population Survey</t>
   </si>
   <si>
-    <t>Labor Force Status Flows</t>
-  </si>
-  <si>
     <t>Quarterly Census of Employment and Wages</t>
   </si>
   <si>
@@ -1090,6 +1087,36 @@
   </si>
   <si>
     <t>Surveys of Consumers</t>
+  </si>
+  <si>
+    <t>LNS17400000</t>
+  </si>
+  <si>
+    <t>Labor Force Flows Employed to Unemployed</t>
+  </si>
+  <si>
+    <t>QCEWEMP</t>
+  </si>
+  <si>
+    <t>Total Employment</t>
+  </si>
+  <si>
+    <t>QCEWWAGE</t>
+  </si>
+  <si>
+    <t>Average Weekly Wage</t>
+  </si>
+  <si>
+    <t>Unemployment Insurance Weekly Claims Report</t>
+  </si>
+  <si>
+    <t>Initial Unemployment Claims</t>
+  </si>
+  <si>
+    <t>IC4WSA</t>
+  </si>
+  <si>
+    <t>US Employment and Training Administration</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,6 +1816,14 @@
         <v>123</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>180</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1796,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3181,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59">
         <v>91</v>
@@ -3169,7 +3204,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B60">
         <v>91</v>
@@ -3738,7 +3773,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B88">
         <v>357</v>
@@ -3991,7 +4026,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B99">
         <v>188</v>
@@ -4014,7 +4049,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B100">
         <v>188</v>
@@ -4757,16 +4792,16 @@
         <v>334</v>
       </c>
       <c r="C132" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="D132" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E132" t="s">
         <v>227</v>
       </c>
       <c r="F132" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="G132" t="s">
         <v>324</v>
@@ -4774,22 +4809,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133">
         <v>362</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E133" t="s">
         <v>227</v>
       </c>
       <c r="F133" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="G133" t="s">
         <v>324</v>
@@ -4797,7 +4832,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B134">
         <v>434</v>
@@ -4806,7 +4841,7 @@
         <v>331</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E134" t="s">
         <v>229</v>
@@ -4816,6 +4851,52 @@
       </c>
       <c r="G134" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="2">
+        <v>362</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>359</v>
+      </c>
+      <c r="B136">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>361</v>
+      </c>
+      <c r="D136" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" t="s">
+        <v>362</v>
+      </c>
+      <c r="F136" t="s">
+        <v>308</v>
+      </c>
+      <c r="G136" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
